--- a/biology/Zoologie/Aspitha_leander/Aspitha_leander.xlsx
+++ b/biology/Zoologie/Aspitha_leander/Aspitha_leander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspitha leander est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspitha leander a été décrit par Eugène Boullet en 1912[1] sous le protonyme de Yanguna leander[2] sur la base d'un spécimen mâle collecté dans les environs de Muzo (département de Boyacá, Colombie) à 800 m d'altitude[2].
-Nom vernaculaire
-Aspitha leander se nomme Leander Firetip en anglais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspitha leander a été décrit par Eugène Boullet en 1912 sous le protonyme de Yanguna leander sur la base d'un spécimen mâle collecté dans les environs de Muzo (département de Boyacá, Colombie) à 800 m d'altitude.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspitha leander se nomme Leander Firetip en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aspitha_leander</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aspitha_leander</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspitha leander est un papillon au corps trapu marron, aux côtés du thorax marqués de lignes de poils orange. 
 Les ailes sont de couleur marron avec dans leur partie basale une grande plage orange. Les ailes antérieures sont barrées de deux étroites bandes blanches veinées.
@@ -553,39 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aspitha_leander</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aspitha_leander</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspitha leander est présent dans le Sud-Est du Mexique et en Colombie[1],[3].
-Protection
-Pas de statut de protection particulier.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -607,10 +625,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspitha leander est présent dans le Sud-Est du Mexique et en Colombie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aspitha_leander</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aspitha_leander</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aspitha_leander</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aspitha_leander</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Eugène Boullet, « Description d'un nouvel Hespéride [Lep.] », Bulletin de la Société entomologique de France, Paris, vol. 1912,‎ 1912, p. 92 (ISSN 0037-928X, lire en ligne, consulté le 24 janvier 2021).</t>
         </is>
